--- a/biology/Botanique/Coteaux-du-lyonnais/Coteaux-du-lyonnais.xlsx
+++ b/biology/Botanique/Coteaux-du-lyonnais/Coteaux-du-lyonnais.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Le coteaux-du-lyonnais[1] est un vin français d'appellation d'origine contrôlée produit dans les communes couvrant les monts du Lyonnais, à l'ouest de Lyon, dans le département du Rhône.
-Les communes viticoles de cette appellation font partie de ce que l'INAO appelle le « bassin viticole Bourgogne-Beaujolais-Savoie-Jura »[4]. Selon les auteurs, cette appellation forme une petite région viticole à part entière, ou est rattachée au vignoble de la vallée du Rhône[5], voire au vignoble de Bourgogne (comme les appellations du Beaujolais).
+Le coteaux-du-lyonnais est un vin français d'appellation d'origine contrôlée produit dans les communes couvrant les monts du Lyonnais, à l'ouest de Lyon, dans le département du Rhône.
+Les communes viticoles de cette appellation font partie de ce que l'INAO appelle le « bassin viticole Bourgogne-Beaujolais-Savoie-Jura ». Selon les auteurs, cette appellation forme une petite région viticole à part entière, ou est rattachée au vignoble de la vallée du Rhône, voire au vignoble de Bourgogne (comme les appellations du Beaujolais).
 </t>
         </is>
       </c>
@@ -513,13 +525,11 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">L’AOC est obtenue le 9 mai 1984 sous la signature de Louis Mermaz, ministre de l’Agriculture.
-Climat
-Les tendances climatiques sont très proches de celles du Beaujolais avec toutefois une influence méditerranéenne plus prononcée pour le sud de l’appellation. Sur l'ouest on retrouve une influence du climat du Forez.
-Aire d'appellation
-Bessenay, Bibost, Brindas, Chaponost, Charly, Chassagny, Chasselay, Chaussan, Chevinay, Civrieux-d'Azergues, Courzieu, Dardilly, Dommartin, Eveux, Fleurieux-sur-l'Arbresle, Givors, Grezieu-la-Varenne, Grigny, Irigny, Lentilly, Limonest, Lissieu, Marcilly-d'Azergues, Marcy-l'Etoile, Messimy, Millery, Montagny, Mornant, Orliénas, Poleymieux-au-Mont-d'Or, Pollionnay, Sain-Bel, Saint-Andéol-le-Château, Sainte-Consorce, Saint-Didier-au-Mont-d'Or, Saint-Forgeux, Saint-Germain-au-Mont-d'Or, Saint-Julien-sur-Bibost, Saint-Laurent-d'Agny, Saint-Pierre-la-Palud, Saint-Romain-en-Gier, Savigny, Sourcieux-les-Mines, Soucieu-en-Jarrest, Taluyers, Thurins, La Tour-de-Salvagny, Vaugneray, Vernaison, Vourles.
 </t>
         </is>
       </c>
@@ -545,72 +555,93 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
+          <t>Historique</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Climat</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les tendances climatiques sont très proches de celles du Beaujolais avec toutefois une influence méditerranéenne plus prononcée pour le sud de l’appellation. Sur l'ouest on retrouve une influence du climat du Forez.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Coteaux-du-lyonnais</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Coteaux-du-lyonnais</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Historique</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Aire d'appellation</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Bessenay, Bibost, Brindas, Chaponost, Charly, Chassagny, Chasselay, Chaussan, Chevinay, Civrieux-d'Azergues, Courzieu, Dardilly, Dommartin, Eveux, Fleurieux-sur-l'Arbresle, Givors, Grezieu-la-Varenne, Grigny, Irigny, Lentilly, Limonest, Lissieu, Marcilly-d'Azergues, Marcy-l'Etoile, Messimy, Millery, Montagny, Mornant, Orliénas, Poleymieux-au-Mont-d'Or, Pollionnay, Sain-Bel, Saint-Andéol-le-Château, Sainte-Consorce, Saint-Didier-au-Mont-d'Or, Saint-Forgeux, Saint-Germain-au-Mont-d'Or, Saint-Julien-sur-Bibost, Saint-Laurent-d'Agny, Saint-Pierre-la-Palud, Saint-Romain-en-Gier, Savigny, Sourcieux-les-Mines, Soucieu-en-Jarrest, Taluyers, Thurins, La Tour-de-Salvagny, Vaugneray, Vernaison, Vourles.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Coteaux-du-lyonnais</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Coteaux-du-lyonnais</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>Vignoble</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Le vignoble des coteaux du Lyonnais s'étend en deux zones principales à environ dix kilomètres de Lyon, autour de L'Arbresle au nord et de Brignais au sud.
 Les coteaux-du-lyonnais sont limités à l’est par le Rhône et la Saône, à l’ouest par les monts du Lyonnais et au nord et au sud par les vignobles du Beaujolais et des côtes-du-rhône.
 Les vignobles couvrent environ 370 hectares cultivés, ce qui représente une production d'environ 22 000 hectolitres dans les années 2000. En 2018 la surface a diminué à 250 hectares environ, la production également de moitié.
-Encépagement
-Pour les rouges et rosés : gamay, cépage noir à jus blanc.
-Pour les blancs : chardonnay principalement, mais également de l'aligoté et marginalement le pinot blanc.
 </t>
         </is>
       </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Coteaux-du-lyonnais</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Portail:Botanique/Articles liés</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Coteaux-du-lyonnais</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>Vins et terroirs</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr"/>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Coteaux-du-lyonnais</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Portail:Botanique/Articles liés</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Coteaux-du-lyonnais</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>Structure des exploitations</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -633,10 +664,22 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Vin et gastronomie</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr"/>
+          <t>Vignoble</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Encépagement</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pour les rouges et rosés : gamay, cépage noir à jus blanc.
+Pour les blancs : chardonnay principalement, mais également de l'aligoté et marginalement le pinot blanc.
+</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -659,10 +702,96 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
+          <t>Vins et terroirs</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr"/>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Coteaux-du-lyonnais</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Coteaux-du-lyonnais</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Structure des exploitations</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr"/>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Coteaux-du-lyonnais</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Coteaux-du-lyonnais</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Vin et gastronomie</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr"/>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Coteaux-du-lyonnais</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Coteaux-du-lyonnais</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
           <t>Commercialisation</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr"/>
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
